--- a/natmiOut/YoungD2/LR-pairs_lrc2p/C3-Nrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/C3-Nrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H2">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I2">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J2">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N2">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q2">
-        <v>17.49423244339398</v>
+        <v>61.28106060042067</v>
       </c>
       <c r="R2">
-        <v>17.49423244339398</v>
+        <v>551.529545403786</v>
       </c>
       <c r="S2">
-        <v>0.0002721625275335025</v>
+        <v>0.0008344572624087096</v>
       </c>
       <c r="T2">
-        <v>0.0002721625275335025</v>
+        <v>0.0008344572624087095</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H3">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I3">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J3">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N3">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q3">
-        <v>6.809665799282912</v>
+        <v>21.96159489074534</v>
       </c>
       <c r="R3">
-        <v>6.809665799282912</v>
+        <v>197.654354016708</v>
       </c>
       <c r="S3">
-        <v>0.0001059398211146512</v>
+        <v>0.0002990485505816238</v>
       </c>
       <c r="T3">
-        <v>0.0001059398211146512</v>
+        <v>0.0002990485505816238</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H4">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I4">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J4">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N4">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q4">
-        <v>9.322490358711553</v>
+        <v>31.72075510284866</v>
       </c>
       <c r="R4">
-        <v>9.322490358711553</v>
+        <v>285.486795925638</v>
       </c>
       <c r="S4">
-        <v>0.0001450325155529606</v>
+        <v>0.000431937930011585</v>
       </c>
       <c r="T4">
-        <v>0.0001450325155529606</v>
+        <v>0.000431937930011585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H5">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I5">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J5">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N5">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q5">
-        <v>12.50317025385529</v>
+        <v>40.18564212686201</v>
       </c>
       <c r="R5">
-        <v>12.50317025385529</v>
+        <v>361.670779141758</v>
       </c>
       <c r="S5">
-        <v>0.000194515216914014</v>
+        <v>0.0005472033380095773</v>
       </c>
       <c r="T5">
-        <v>0.000194515216914014</v>
+        <v>0.0005472033380095773</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H6">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I6">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J6">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N6">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q6">
-        <v>3.67258944554172</v>
+        <v>12.33507356457467</v>
       </c>
       <c r="R6">
-        <v>3.67258944554172</v>
+        <v>111.015662081172</v>
       </c>
       <c r="S6">
-        <v>5.71354718948494E-05</v>
+        <v>0.0001679652998406879</v>
       </c>
       <c r="T6">
-        <v>5.71354718948494E-05</v>
+        <v>0.0001679652998406878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H7">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I7">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J7">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N7">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q7">
-        <v>3.085566195619641</v>
+        <v>10.07602414128045</v>
       </c>
       <c r="R7">
-        <v>3.085566195619641</v>
+        <v>90.68421727152401</v>
       </c>
       <c r="S7">
-        <v>4.800299169392161E-05</v>
+        <v>0.0001372040796702404</v>
       </c>
       <c r="T7">
-        <v>4.800299169392161E-05</v>
+        <v>0.0001372040796702404</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H8">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I8">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J8">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N8">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q8">
-        <v>7130.228927562151</v>
+        <v>8074.042426787574</v>
       </c>
       <c r="R8">
-        <v>7130.228927562151</v>
+        <v>72666.38184108816</v>
       </c>
       <c r="S8">
-        <v>0.1109269088024834</v>
+        <v>0.1099433213788517</v>
       </c>
       <c r="T8">
-        <v>0.1109269088024834</v>
+        <v>0.1099433213788516</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H9">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I9">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J9">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N9">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q9">
-        <v>2775.456209707124</v>
+        <v>2893.534269323365</v>
       </c>
       <c r="R9">
-        <v>2775.456209707124</v>
+        <v>26041.80842391029</v>
       </c>
       <c r="S9">
-        <v>0.04317852638214396</v>
+        <v>0.03940092846644998</v>
       </c>
       <c r="T9">
-        <v>0.04317852638214396</v>
+        <v>0.03940092846644998</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H10">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I10">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J10">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N10">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q10">
-        <v>3799.623141380219</v>
+        <v>4179.345461726236</v>
       </c>
       <c r="R10">
-        <v>3799.623141380219</v>
+        <v>37614.10915553613</v>
       </c>
       <c r="S10">
-        <v>0.05911176961772454</v>
+        <v>0.0569096738614279</v>
       </c>
       <c r="T10">
-        <v>0.05911176961772454</v>
+        <v>0.0569096738614279</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H11">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I11">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J11">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N11">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q11">
-        <v>5095.991865818489</v>
+        <v>5294.630613455123</v>
       </c>
       <c r="R11">
-        <v>5095.991865818489</v>
+        <v>47651.67552109611</v>
       </c>
       <c r="S11">
-        <v>0.079279730104138</v>
+        <v>0.07209638547180726</v>
       </c>
       <c r="T11">
-        <v>0.079279730104138</v>
+        <v>0.07209638547180726</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H12">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I12">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J12">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N12">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q12">
-        <v>1496.859241375251</v>
+        <v>1625.198818723416</v>
       </c>
       <c r="R12">
-        <v>1496.859241375251</v>
+        <v>14626.78936851074</v>
       </c>
       <c r="S12">
-        <v>0.02328704593429615</v>
+        <v>0.02213014826855821</v>
       </c>
       <c r="T12">
-        <v>0.02328704593429615</v>
+        <v>0.02213014826855821</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H13">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I13">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J13">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N13">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O13">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P13">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q13">
-        <v>1257.602665169961</v>
+        <v>1327.559373368216</v>
       </c>
       <c r="R13">
-        <v>1257.602665169961</v>
+        <v>11948.03436031395</v>
       </c>
       <c r="S13">
-        <v>0.01956486636913136</v>
+        <v>0.01807722564740107</v>
       </c>
       <c r="T13">
-        <v>0.01956486636913136</v>
+        <v>0.01807722564740107</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>27.7058855844917</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H14">
-        <v>27.7058855844917</v>
+        <v>123.061588</v>
       </c>
       <c r="I14">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J14">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N14">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O14">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P14">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q14">
-        <v>2469.339492528203</v>
+        <v>3996.21467600505</v>
       </c>
       <c r="R14">
-        <v>2469.339492528203</v>
+        <v>35965.93208404545</v>
       </c>
       <c r="S14">
-        <v>0.03841618543707816</v>
+        <v>0.05441600269094871</v>
       </c>
       <c r="T14">
-        <v>0.03841618543707816</v>
+        <v>0.05441600269094871</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>27.7058855844917</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H15">
-        <v>27.7058855844917</v>
+        <v>123.061588</v>
       </c>
       <c r="I15">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J15">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N15">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P15">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q15">
-        <v>961.1954536157773</v>
+        <v>1432.143095288915</v>
       </c>
       <c r="R15">
-        <v>961.1954536157773</v>
+        <v>12889.28785760023</v>
       </c>
       <c r="S15">
-        <v>0.0149535788412692</v>
+        <v>0.01950133034518858</v>
       </c>
       <c r="T15">
-        <v>0.0149535788412692</v>
+        <v>0.01950133034518857</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>27.7058855844917</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H16">
-        <v>27.7058855844917</v>
+        <v>123.061588</v>
       </c>
       <c r="I16">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J16">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N16">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O16">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P16">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q16">
-        <v>1315.884745785038</v>
+        <v>2068.550149654161</v>
       </c>
       <c r="R16">
-        <v>1315.884745785038</v>
+        <v>18616.95134688745</v>
       </c>
       <c r="S16">
-        <v>0.02047157653326322</v>
+        <v>0.02816721313442295</v>
       </c>
       <c r="T16">
-        <v>0.02047157653326322</v>
+        <v>0.02816721313442295</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.7058855844917</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H17">
-        <v>27.7058855844917</v>
+        <v>123.061588</v>
       </c>
       <c r="I17">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J17">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N17">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O17">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P17">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q17">
-        <v>1764.842909773234</v>
+        <v>2620.556029197548</v>
       </c>
       <c r="R17">
-        <v>1764.842909773234</v>
+        <v>23585.00426277793</v>
       </c>
       <c r="S17">
-        <v>0.02745614067822909</v>
+        <v>0.03568381468413773</v>
       </c>
       <c r="T17">
-        <v>0.02745614067822909</v>
+        <v>0.03568381468413772</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.7058855844917</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H18">
-        <v>27.7058855844917</v>
+        <v>123.061588</v>
       </c>
       <c r="I18">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J18">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N18">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O18">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P18">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q18">
-        <v>518.392000738674</v>
+        <v>804.3855887183654</v>
       </c>
       <c r="R18">
-        <v>518.392000738674</v>
+        <v>7239.470298465289</v>
       </c>
       <c r="S18">
-        <v>0.008064765209374066</v>
+        <v>0.01095322746875464</v>
       </c>
       <c r="T18">
-        <v>0.008064765209374066</v>
+        <v>0.01095322746875464</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.7058855844917</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H19">
-        <v>27.7058855844917</v>
+        <v>123.061588</v>
       </c>
       <c r="I19">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J19">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N19">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O19">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P19">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q19">
-        <v>435.5327098978109</v>
+        <v>657.0701478506995</v>
       </c>
       <c r="R19">
-        <v>435.5327098978109</v>
+        <v>5913.631330656296</v>
       </c>
       <c r="S19">
-        <v>0.006775700707810382</v>
+        <v>0.008947249793229216</v>
       </c>
       <c r="T19">
-        <v>0.006775700707810382</v>
+        <v>0.008947249793229216</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.1060586039336</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H20">
-        <v>30.1060586039336</v>
+        <v>90.484706</v>
       </c>
       <c r="I20">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J20">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N20">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O20">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P20">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q20">
-        <v>2683.259455769734</v>
+        <v>2938.336128664309</v>
       </c>
       <c r="R20">
-        <v>2683.259455769734</v>
+        <v>26445.02515797878</v>
       </c>
       <c r="S20">
-        <v>0.04174419643007683</v>
+        <v>0.04001099031149918</v>
       </c>
       <c r="T20">
-        <v>0.04174419643007683</v>
+        <v>0.04001099031149917</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.1060586039336</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H21">
-        <v>30.1060586039336</v>
+        <v>90.484706</v>
       </c>
       <c r="I21">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J21">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N21">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O21">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P21">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q21">
-        <v>1044.464237323964</v>
+        <v>1053.025960685209</v>
       </c>
       <c r="R21">
-        <v>1044.464237323964</v>
+        <v>9477.233646166886</v>
       </c>
       <c r="S21">
-        <v>0.0162490139346344</v>
+        <v>0.01433893525649341</v>
       </c>
       <c r="T21">
-        <v>0.0162490139346344</v>
+        <v>0.01433893525649341</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.1060586039336</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H22">
-        <v>30.1060586039336</v>
+        <v>90.484706</v>
       </c>
       <c r="I22">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J22">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N22">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O22">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P22">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q22">
-        <v>1429.880418433607</v>
+        <v>1520.963244336752</v>
       </c>
       <c r="R22">
-        <v>1429.880418433607</v>
+        <v>13688.66919903077</v>
       </c>
       <c r="S22">
-        <v>0.0222450381867713</v>
+        <v>0.02071078425631562</v>
       </c>
       <c r="T22">
-        <v>0.0222450381867713</v>
+        <v>0.02071078425631562</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.1060586039336</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H23">
-        <v>30.1060586039336</v>
+        <v>90.484706</v>
       </c>
       <c r="I23">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J23">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N23">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O23">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P23">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q23">
-        <v>1917.732025072336</v>
+        <v>1926.842044801726</v>
       </c>
       <c r="R23">
-        <v>1917.732025072336</v>
+        <v>17341.57840321554</v>
       </c>
       <c r="S23">
-        <v>0.02983467818690825</v>
+        <v>0.02623758991841292</v>
       </c>
       <c r="T23">
-        <v>0.02983467818690825</v>
+        <v>0.02623758991841292</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.1060586039336</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H24">
-        <v>30.1060586039336</v>
+        <v>90.484706</v>
       </c>
       <c r="I24">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J24">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N24">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O24">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P24">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q24">
-        <v>563.3005271192177</v>
+        <v>591.4485152411507</v>
       </c>
       <c r="R24">
-        <v>563.3005271192177</v>
+        <v>5323.036637170357</v>
       </c>
       <c r="S24">
-        <v>0.008763419356509802</v>
+        <v>0.008053687453321242</v>
       </c>
       <c r="T24">
-        <v>0.008763419356509802</v>
+        <v>0.00805368745332124</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.1060586039336</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H25">
-        <v>30.1060586039336</v>
+        <v>90.484706</v>
       </c>
       <c r="I25">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J25">
-        <v>0.1261990287267179</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N25">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O25">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P25">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q25">
-        <v>473.2630995723528</v>
+        <v>483.1304399358725</v>
       </c>
       <c r="R25">
-        <v>473.2630995723528</v>
+        <v>4348.173959422852</v>
       </c>
       <c r="S25">
-        <v>0.007362682631817278</v>
+        <v>0.006578732488393586</v>
       </c>
       <c r="T25">
-        <v>0.007362682631817278</v>
+        <v>0.006578732488393586</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>100.160602978402</v>
+        <v>105.0835686666667</v>
       </c>
       <c r="H26">
-        <v>100.160602978402</v>
+        <v>315.250706</v>
       </c>
       <c r="I26">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="J26">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N26">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O26">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P26">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q26">
-        <v>8927.00331760731</v>
+        <v>10237.22770372631</v>
       </c>
       <c r="R26">
-        <v>8927.00331760731</v>
+        <v>92135.04933353678</v>
       </c>
       <c r="S26">
-        <v>0.1388798161955034</v>
+        <v>0.1393991703245328</v>
       </c>
       <c r="T26">
-        <v>0.1388798161955034</v>
+        <v>0.1393991703245328</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>100.160602978402</v>
+        <v>105.0835686666667</v>
       </c>
       <c r="H27">
-        <v>100.160602978402</v>
+        <v>315.250706</v>
       </c>
       <c r="I27">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="J27">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N27">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O27">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P27">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q27">
-        <v>3474.85432005624</v>
+        <v>3668.765609321209</v>
       </c>
       <c r="R27">
-        <v>3474.85432005624</v>
+        <v>33018.89048389089</v>
       </c>
       <c r="S27">
-        <v>0.05405925282045358</v>
+        <v>0.04995716583195661</v>
       </c>
       <c r="T27">
-        <v>0.05405925282045358</v>
+        <v>0.0499571658319566</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>100.160602978402</v>
+        <v>105.0835686666667</v>
       </c>
       <c r="H28">
-        <v>100.160602978402</v>
+        <v>315.250706</v>
       </c>
       <c r="I28">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="J28">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N28">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O28">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P28">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q28">
-        <v>4757.105099058275</v>
+        <v>5299.069398282752</v>
       </c>
       <c r="R28">
-        <v>4757.105099058275</v>
+        <v>47691.62458454477</v>
       </c>
       <c r="S28">
-        <v>0.07400757659368523</v>
+        <v>0.0721568279021339</v>
       </c>
       <c r="T28">
-        <v>0.07400757659368523</v>
+        <v>0.0721568279021339</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>100.160602978402</v>
+        <v>105.0835686666667</v>
       </c>
       <c r="H29">
-        <v>100.160602978402</v>
+        <v>315.250706</v>
       </c>
       <c r="I29">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="J29">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N29">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O29">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P29">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q29">
-        <v>6380.150869604036</v>
+        <v>6713.160066787726</v>
       </c>
       <c r="R29">
-        <v>6380.150869604036</v>
+        <v>60418.44060108953</v>
       </c>
       <c r="S29">
-        <v>0.09925774064881637</v>
+        <v>0.09141234039615662</v>
       </c>
       <c r="T29">
-        <v>0.09925774064881637</v>
+        <v>0.0914123403961566</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>100.160602978402</v>
+        <v>105.0835686666667</v>
       </c>
       <c r="H30">
-        <v>100.160602978402</v>
+        <v>315.250706</v>
       </c>
       <c r="I30">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="J30">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N30">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O30">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P30">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q30">
-        <v>1874.058680233245</v>
+        <v>2060.619636565151</v>
       </c>
       <c r="R30">
-        <v>1874.058680233245</v>
+        <v>18545.57672908636</v>
       </c>
       <c r="S30">
-        <v>0.02915524009462787</v>
+        <v>0.0280592242357826</v>
       </c>
       <c r="T30">
-        <v>0.02915524009462787</v>
+        <v>0.0280592242357826</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>100.160602978402</v>
+        <v>105.0835686666667</v>
       </c>
       <c r="H31">
-        <v>100.160602978402</v>
+        <v>315.250706</v>
       </c>
       <c r="I31">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="J31">
-        <v>0.4198547202357866</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N31">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O31">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P31">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q31">
-        <v>1574.510899756266</v>
+        <v>1683.237079643872</v>
       </c>
       <c r="R31">
-        <v>1574.510899756266</v>
+        <v>15149.13371679485</v>
       </c>
       <c r="S31">
-        <v>0.02449509388270016</v>
+        <v>0.02292044869495641</v>
       </c>
       <c r="T31">
-        <v>0.02449509388270016</v>
+        <v>0.02292044869495641</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.390443725935655</v>
+        <v>0.3953956666666666</v>
       </c>
       <c r="H32">
-        <v>0.390443725935655</v>
+        <v>1.186187</v>
       </c>
       <c r="I32">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="J32">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N32">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O32">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P32">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q32">
-        <v>34.79903607926703</v>
+        <v>38.51939484062567</v>
       </c>
       <c r="R32">
-        <v>34.79903607926703</v>
+        <v>346.674553565631</v>
       </c>
       <c r="S32">
-        <v>0.0005413780596381189</v>
+        <v>0.0005245142374074383</v>
       </c>
       <c r="T32">
-        <v>0.0005413780596381189</v>
+        <v>0.0005245142374074383</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.390443725935655</v>
+        <v>0.3953956666666666</v>
       </c>
       <c r="H33">
-        <v>0.390443725935655</v>
+        <v>1.186187</v>
       </c>
       <c r="I33">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="J33">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N33">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O33">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P33">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q33">
-        <v>13.54559604736928</v>
+        <v>13.80438485623533</v>
       </c>
       <c r="R33">
-        <v>13.54559604736928</v>
+        <v>124.239463706118</v>
       </c>
       <c r="S33">
-        <v>0.0002107325182244247</v>
+        <v>0.0001879727453067499</v>
       </c>
       <c r="T33">
-        <v>0.0002107325182244247</v>
+        <v>0.0001879727453067499</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.390443725935655</v>
+        <v>0.3953956666666666</v>
       </c>
       <c r="H34">
-        <v>0.390443725935655</v>
+        <v>1.186187</v>
       </c>
       <c r="I34">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="J34">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N34">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O34">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P34">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q34">
-        <v>18.54403612111172</v>
+        <v>19.93869359436366</v>
       </c>
       <c r="R34">
-        <v>18.54403612111172</v>
+        <v>179.448242349273</v>
       </c>
       <c r="S34">
-        <v>0.0002884946085931385</v>
+        <v>0.0002715029327126979</v>
       </c>
       <c r="T34">
-        <v>0.0002884946085931385</v>
+        <v>0.0002715029327126979</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.390443725935655</v>
+        <v>0.3953956666666666</v>
       </c>
       <c r="H35">
-        <v>0.390443725935655</v>
+        <v>1.186187</v>
       </c>
       <c r="I35">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="J35">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N35">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O35">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P35">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q35">
-        <v>24.87095528066033</v>
+        <v>25.259461909477</v>
       </c>
       <c r="R35">
-        <v>24.87095528066033</v>
+        <v>227.335157185293</v>
       </c>
       <c r="S35">
-        <v>0.0003869242090648713</v>
+        <v>0.0003439552323080153</v>
       </c>
       <c r="T35">
-        <v>0.0003869242090648713</v>
+        <v>0.0003439552323080153</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.390443725935655</v>
+        <v>0.3953956666666666</v>
       </c>
       <c r="H36">
-        <v>0.390443725935655</v>
+        <v>1.186187</v>
       </c>
       <c r="I36">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="J36">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N36">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O36">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P36">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q36">
-        <v>7.305411828342394</v>
+        <v>7.753448852984667</v>
       </c>
       <c r="R36">
-        <v>7.305411828342394</v>
+        <v>69.78103967686201</v>
       </c>
       <c r="S36">
-        <v>0.0001136522767894056</v>
+        <v>0.0001055778349900674</v>
       </c>
       <c r="T36">
-        <v>0.0001136522767894056</v>
+        <v>0.0001055778349900674</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.390443725935655</v>
+        <v>0.3953956666666666</v>
       </c>
       <c r="H37">
-        <v>0.390443725935655</v>
+        <v>1.186187</v>
       </c>
       <c r="I37">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="J37">
-        <v>0.001636667875850162</v>
+        <v>0.001519765258344565</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N37">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O37">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P37">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q37">
-        <v>6.137721658481824</v>
+        <v>6.33347968391711</v>
       </c>
       <c r="R37">
-        <v>6.137721658481824</v>
+        <v>57.001317155254</v>
       </c>
       <c r="S37">
-        <v>9.548620354020264E-05</v>
+        <v>8.624227561959611E-05</v>
       </c>
       <c r="T37">
-        <v>9.548620354020264E-05</v>
+        <v>8.624227561959612E-05</v>
       </c>
     </row>
   </sheetData>
